--- a/Diastole BP Updated.xlsx
+++ b/Diastole BP Updated.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +750,22 @@
         <v>102.290555</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>73.93605490000002</v>
+      </c>
+      <c r="B40" t="n">
+        <v>115.284784</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>79.97993409999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>111.490211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Diastole BP Updated.xlsx
+++ b/Diastole BP Updated.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,328 +442,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Blood pressure</t>
+          <t>Diastolic BP</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26.0742092</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>77.244309</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.0521482</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>87.2974394</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34.9712588</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>88.3485689</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35.10134050000001</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>81.2493236</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.1052497</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>76.2276882</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35.11158529999999</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>68.08917579999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34.1174375</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>65.1429936</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.1203241</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>66.0063279</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.0924341</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>69.83309870000001</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.0901983</v>
+        <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>77.2765069</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>40.08744650000001</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>76.2400128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>41.0163512</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>82.9955574</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.0706986</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>84.0396003</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.0767646</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>76.24740749999999</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>41.0824031</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>78.14723590000001</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41.0879298</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>71.04768249999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>45.1289552</v>
+        <v>32</v>
       </c>
       <c r="B18" t="n">
-        <v>80.0620079</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50.0456393</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>84.2300145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>51.0428875</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>83.1935204</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>51.1518056</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>103.28037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>53.0295654</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>91.1638028</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55.08081239999999</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>96.190522</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59.0056404</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>94.4686292</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>56.08345260000001</v>
-      </c>
-      <c r="B25" t="n">
-        <v>88.22763430000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>59.07223149999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>88.9276684</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>61.1233436</v>
-      </c>
-      <c r="B27" t="n">
-        <v>94.12754749999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>63.1163572</v>
-      </c>
-      <c r="B28" t="n">
-        <v>93.95931750000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>58.0788925</v>
-      </c>
-      <c r="B29" t="n">
-        <v>84.9425272</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>56.154492</v>
-      </c>
-      <c r="B30" t="n">
-        <v>76.97239880000001</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>54.102571</v>
-      </c>
-      <c r="B31" t="n">
-        <v>72.81147879999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>50.0606021</v>
-      </c>
-      <c r="B32" t="n">
-        <v>65.00927230000001</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>62.9481272</v>
-      </c>
-      <c r="B33" t="n">
-        <v>70.06279740000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>63.003395</v>
-      </c>
-      <c r="B34" t="n">
-        <v>79.06726309999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>65.9910955</v>
-      </c>
-      <c r="B35" t="n">
-        <v>81.1525759</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>65.98786029999999</v>
-      </c>
-      <c r="B36" t="n">
-        <v>85.3084121</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>68.9031734</v>
-      </c>
-      <c r="B37" t="n">
-        <v>100.380559</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>72.03672709999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>75.106925</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>71.01912420000001</v>
-      </c>
-      <c r="B39" t="n">
-        <v>102.290555</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>73.93605490000002</v>
-      </c>
-      <c r="B40" t="n">
-        <v>115.284784</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>79.97993409999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>111.490211</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Diastole BP Updated.xlsx
+++ b/Diastole BP Updated.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,18 +496,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -515,36 +515,36 @@
         <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>74</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -563,70 +563,118 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>71</v>
       </c>
     </row>
